--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3101.575884049646</v>
+        <v>3395.197356741315</v>
       </c>
       <c r="AB2" t="n">
-        <v>4243.712956427863</v>
+        <v>4645.458809029779</v>
       </c>
       <c r="AC2" t="n">
-        <v>3838.698947954769</v>
+        <v>4202.10274023819</v>
       </c>
       <c r="AD2" t="n">
-        <v>3101575.884049646</v>
+        <v>3395197.356741315</v>
       </c>
       <c r="AE2" t="n">
-        <v>4243712.956427863</v>
+        <v>4645458.809029779</v>
       </c>
       <c r="AF2" t="n">
         <v>2.678603820329447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.59166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3838698.947954769</v>
+        <v>4202102.74023819</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1127.749560185485</v>
+        <v>1284.264415284573</v>
       </c>
       <c r="AB3" t="n">
-        <v>1543.036701045</v>
+        <v>1757.187230739653</v>
       </c>
       <c r="AC3" t="n">
-        <v>1395.771443962876</v>
+        <v>1589.483747665627</v>
       </c>
       <c r="AD3" t="n">
-        <v>1127749.560185485</v>
+        <v>1284264.415284573</v>
       </c>
       <c r="AE3" t="n">
-        <v>1543036.701045</v>
+        <v>1757187.230739653</v>
       </c>
       <c r="AF3" t="n">
         <v>5.014048017494765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.30416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1395771.443962876</v>
+        <v>1589483.747665627</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>876.5051062905617</v>
+        <v>1013.510238656658</v>
       </c>
       <c r="AB4" t="n">
-        <v>1199.272955102939</v>
+        <v>1386.72942144609</v>
       </c>
       <c r="AC4" t="n">
-        <v>1084.816027458077</v>
+        <v>1254.381911750241</v>
       </c>
       <c r="AD4" t="n">
-        <v>876505.1062905617</v>
+        <v>1013510.238656658</v>
       </c>
       <c r="AE4" t="n">
-        <v>1199272.955102938</v>
+        <v>1386729.42144609</v>
       </c>
       <c r="AF4" t="n">
         <v>5.862341619432878e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.775</v>
       </c>
       <c r="AH4" t="n">
-        <v>1084816.027458077</v>
+        <v>1254381.911750241</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>769.4323284740703</v>
+        <v>896.648939569818</v>
       </c>
       <c r="AB5" t="n">
-        <v>1052.771256776841</v>
+        <v>1226.834636478821</v>
       </c>
       <c r="AC5" t="n">
-        <v>952.2962456037975</v>
+        <v>1109.747260646508</v>
       </c>
       <c r="AD5" t="n">
-        <v>769432.3284740703</v>
+        <v>896648.939569818</v>
       </c>
       <c r="AE5" t="n">
-        <v>1052771.256776841</v>
+        <v>1226834.636478821</v>
       </c>
       <c r="AF5" t="n">
         <v>6.318883291523905e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.8375</v>
       </c>
       <c r="AH5" t="n">
-        <v>952296.2456037975</v>
+        <v>1109747.260646508</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>707.7639784593649</v>
+        <v>834.946424136332</v>
       </c>
       <c r="AB6" t="n">
-        <v>968.3938996711302</v>
+        <v>1142.410532739862</v>
       </c>
       <c r="AC6" t="n">
-        <v>875.9717450358911</v>
+        <v>1033.380474878422</v>
       </c>
       <c r="AD6" t="n">
-        <v>707763.978459365</v>
+        <v>834946.424136332</v>
       </c>
       <c r="AE6" t="n">
-        <v>968393.8996711301</v>
+        <v>1142410.532739862</v>
       </c>
       <c r="AF6" t="n">
         <v>6.602150071567182e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.775</v>
       </c>
       <c r="AH6" t="n">
-        <v>875971.7450358911</v>
+        <v>1033380.474878422</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>670.3042280260377</v>
+        <v>787.6649980437327</v>
       </c>
       <c r="AB7" t="n">
-        <v>917.1398165206977</v>
+        <v>1077.717999650665</v>
       </c>
       <c r="AC7" t="n">
-        <v>829.6092796457785</v>
+        <v>974.8621063507172</v>
       </c>
       <c r="AD7" t="n">
-        <v>670304.2280260377</v>
+        <v>787664.9980437327</v>
       </c>
       <c r="AE7" t="n">
-        <v>917139.8165206977</v>
+        <v>1077717.999650665</v>
       </c>
       <c r="AF7" t="n">
         <v>6.792375768271776e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.10833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>829609.2796457786</v>
+        <v>974862.1063507173</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>650.5284523875422</v>
+        <v>767.9565422129416</v>
       </c>
       <c r="AB8" t="n">
-        <v>890.0817278464611</v>
+        <v>1050.75202090727</v>
       </c>
       <c r="AC8" t="n">
-        <v>805.1335769783451</v>
+        <v>950.469722771603</v>
       </c>
       <c r="AD8" t="n">
-        <v>650528.4523875422</v>
+        <v>767956.5422129416</v>
       </c>
       <c r="AE8" t="n">
-        <v>890081.7278464611</v>
+        <v>1050752.02090727</v>
       </c>
       <c r="AF8" t="n">
         <v>6.842474813146452e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.9375</v>
       </c>
       <c r="AH8" t="n">
-        <v>805133.5769783451</v>
+        <v>950469.7227716029</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>652.2067587277959</v>
+        <v>769.6348485531952</v>
       </c>
       <c r="AB9" t="n">
-        <v>892.3780606228462</v>
+        <v>1053.048353683655</v>
       </c>
       <c r="AC9" t="n">
-        <v>807.2107509774753</v>
+        <v>952.5468967707332</v>
       </c>
       <c r="AD9" t="n">
-        <v>652206.7587277959</v>
+        <v>769634.8485531951</v>
       </c>
       <c r="AE9" t="n">
-        <v>892378.0606228462</v>
+        <v>1053048.353683655</v>
       </c>
       <c r="AF9" t="n">
         <v>6.842851497694381e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.9375</v>
       </c>
       <c r="AH9" t="n">
-        <v>807210.7509774753</v>
+        <v>952546.8967707332</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1950.434525254844</v>
+        <v>2173.019835899626</v>
       </c>
       <c r="AB2" t="n">
-        <v>2668.670564552032</v>
+        <v>2973.221606347084</v>
       </c>
       <c r="AC2" t="n">
-        <v>2413.976391373847</v>
+        <v>2689.461509180051</v>
       </c>
       <c r="AD2" t="n">
-        <v>1950434.525254844</v>
+        <v>2173019.835899626</v>
       </c>
       <c r="AE2" t="n">
-        <v>2668670.564552032</v>
+        <v>2973221.606347084</v>
       </c>
       <c r="AF2" t="n">
         <v>3.730480458105677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.03749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>2413976.391373847</v>
+        <v>2689461.509180051</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>903.9761013149841</v>
+        <v>1049.150173147825</v>
       </c>
       <c r="AB3" t="n">
-        <v>1236.85998243012</v>
+        <v>1435.493552139846</v>
       </c>
       <c r="AC3" t="n">
-        <v>1118.815801650876</v>
+        <v>1298.492062251472</v>
       </c>
       <c r="AD3" t="n">
-        <v>903976.1013149841</v>
+        <v>1049150.173147825</v>
       </c>
       <c r="AE3" t="n">
-        <v>1236859.98243012</v>
+        <v>1435493.552139846</v>
       </c>
       <c r="AF3" t="n">
         <v>6.006440361946087e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.59166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1118815.801650876</v>
+        <v>1298492.062251472</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>734.4693243491459</v>
+        <v>860.2149780740664</v>
       </c>
       <c r="AB4" t="n">
-        <v>1004.933332074239</v>
+        <v>1176.984083007394</v>
       </c>
       <c r="AC4" t="n">
-        <v>909.0239052938628</v>
+        <v>1064.654374032703</v>
       </c>
       <c r="AD4" t="n">
-        <v>734469.324349146</v>
+        <v>860214.9780740663</v>
       </c>
       <c r="AE4" t="n">
-        <v>1004933.332074239</v>
+        <v>1176984.083007394</v>
       </c>
       <c r="AF4" t="n">
         <v>6.822109440124314e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.175</v>
       </c>
       <c r="AH4" t="n">
-        <v>909023.9052938628</v>
+        <v>1064654.374032703</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>643.7769479891183</v>
+        <v>759.9435377904157</v>
       </c>
       <c r="AB5" t="n">
-        <v>880.8440216731849</v>
+        <v>1039.788274747564</v>
       </c>
       <c r="AC5" t="n">
-        <v>796.7775045170445</v>
+        <v>940.552341157665</v>
       </c>
       <c r="AD5" t="n">
-        <v>643776.9479891183</v>
+        <v>759943.5377904157</v>
       </c>
       <c r="AE5" t="n">
-        <v>880844.0216731849</v>
+        <v>1039788.274747564</v>
       </c>
       <c r="AF5" t="n">
         <v>7.272190609083699e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.61666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>796777.5045170444</v>
+        <v>940552.341157665</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>621.4386332806843</v>
+        <v>737.5037378554963</v>
       </c>
       <c r="AB6" t="n">
-        <v>850.2797539922135</v>
+        <v>1009.085150502503</v>
       </c>
       <c r="AC6" t="n">
-        <v>769.1302476463258</v>
+        <v>912.7794799984474</v>
       </c>
       <c r="AD6" t="n">
-        <v>621438.6332806842</v>
+        <v>737503.7378554964</v>
       </c>
       <c r="AE6" t="n">
-        <v>850279.7539922135</v>
+        <v>1009085.150502503</v>
       </c>
       <c r="AF6" t="n">
         <v>7.410264960367028e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.175</v>
       </c>
       <c r="AH6" t="n">
-        <v>769130.2476463257</v>
+        <v>912779.4799984475</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>623.1024264453803</v>
+        <v>739.1675310201924</v>
       </c>
       <c r="AB7" t="n">
-        <v>852.5562292015247</v>
+        <v>1011.361625711815</v>
       </c>
       <c r="AC7" t="n">
-        <v>771.1894592567132</v>
+        <v>914.838691608835</v>
       </c>
       <c r="AD7" t="n">
-        <v>623102.4264453803</v>
+        <v>739167.5310201924</v>
       </c>
       <c r="AE7" t="n">
-        <v>852556.2292015248</v>
+        <v>1011361.625711815</v>
       </c>
       <c r="AF7" t="n">
         <v>7.410677122609665e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.175</v>
       </c>
       <c r="AH7" t="n">
-        <v>771189.4592567133</v>
+        <v>914838.691608835</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>706.687403032406</v>
+        <v>846.9854637095229</v>
       </c>
       <c r="AB2" t="n">
-        <v>966.9208816768089</v>
+        <v>1158.882877808843</v>
       </c>
       <c r="AC2" t="n">
-        <v>874.6393098115544</v>
+        <v>1048.280722453101</v>
       </c>
       <c r="AD2" t="n">
-        <v>706687.403032406</v>
+        <v>846985.463709523</v>
       </c>
       <c r="AE2" t="n">
-        <v>966920.8816768089</v>
+        <v>1158882.877808844</v>
       </c>
       <c r="AF2" t="n">
         <v>8.287615263373966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.92083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>874639.3098115544</v>
+        <v>1048280.722453101</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>560.8998224418297</v>
+        <v>682.4195998317891</v>
       </c>
       <c r="AB3" t="n">
-        <v>767.4478822186529</v>
+        <v>933.7166027178083</v>
       </c>
       <c r="AC3" t="n">
-        <v>694.2037334595716</v>
+        <v>844.6040006339025</v>
       </c>
       <c r="AD3" t="n">
-        <v>560899.8224418296</v>
+        <v>682419.5998317891</v>
       </c>
       <c r="AE3" t="n">
-        <v>767447.8822186529</v>
+        <v>933716.6027178083</v>
       </c>
       <c r="AF3" t="n">
         <v>9.541745575338094e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.12083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>694203.7334595716</v>
+        <v>844604.0006339025</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1014.651907401544</v>
+        <v>1185.269838876603</v>
       </c>
       <c r="AB2" t="n">
-        <v>1388.291502989714</v>
+        <v>1621.738483965787</v>
       </c>
       <c r="AC2" t="n">
-        <v>1255.794910423737</v>
+        <v>1466.962039180349</v>
       </c>
       <c r="AD2" t="n">
-        <v>1014651.907401544</v>
+        <v>1185269.838876602</v>
       </c>
       <c r="AE2" t="n">
-        <v>1388291.502989714</v>
+        <v>1621738.483965787</v>
       </c>
       <c r="AF2" t="n">
         <v>6.164227926063736e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.675</v>
       </c>
       <c r="AH2" t="n">
-        <v>1255794.910423737</v>
+        <v>1466962.039180349</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>610.5720258786636</v>
+        <v>733.8112721301083</v>
       </c>
       <c r="AB3" t="n">
-        <v>835.4115823438846</v>
+        <v>1004.032955996936</v>
       </c>
       <c r="AC3" t="n">
-        <v>755.6810734325032</v>
+        <v>908.2094598456922</v>
       </c>
       <c r="AD3" t="n">
-        <v>610572.0258786635</v>
+        <v>733811.2721301082</v>
       </c>
       <c r="AE3" t="n">
-        <v>835411.5823438845</v>
+        <v>1004032.955996936</v>
       </c>
       <c r="AF3" t="n">
         <v>8.319440890433873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.95416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>755681.0734325033</v>
+        <v>908209.4598456922</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>576.7646321302211</v>
+        <v>690.4881538642633</v>
       </c>
       <c r="AB4" t="n">
-        <v>789.1548147403167</v>
+        <v>944.756354304521</v>
       </c>
       <c r="AC4" t="n">
-        <v>713.8389868072389</v>
+        <v>854.590133823568</v>
       </c>
       <c r="AD4" t="n">
-        <v>576764.6321302211</v>
+        <v>690488.1538642633</v>
       </c>
       <c r="AE4" t="n">
-        <v>789154.8147403167</v>
+        <v>944756.354304521</v>
       </c>
       <c r="AF4" t="n">
         <v>8.639285255465226e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.02916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>713838.9868072389</v>
+        <v>854590.133823568</v>
       </c>
     </row>
     <row r="5">
@@ -5464,28 +5464,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>578.7987607319709</v>
+        <v>692.5222824660129</v>
       </c>
       <c r="AB5" t="n">
-        <v>791.9379992326512</v>
+        <v>947.5395387968555</v>
       </c>
       <c r="AC5" t="n">
-        <v>716.356548077849</v>
+        <v>857.107695094178</v>
       </c>
       <c r="AD5" t="n">
-        <v>578798.7607319709</v>
+        <v>692522.282466013</v>
       </c>
       <c r="AE5" t="n">
-        <v>791937.9992326512</v>
+        <v>947539.5387968555</v>
       </c>
       <c r="AF5" t="n">
         <v>8.639783455410757e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.025</v>
       </c>
       <c r="AH5" t="n">
-        <v>716356.548077849</v>
+        <v>857107.695094178</v>
       </c>
     </row>
   </sheetData>
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>559.684716740476</v>
+        <v>689.1679559981756</v>
       </c>
       <c r="AB2" t="n">
-        <v>765.7853209913806</v>
+        <v>942.9500013411206</v>
       </c>
       <c r="AC2" t="n">
-        <v>692.699844742411</v>
+        <v>852.9561766517621</v>
       </c>
       <c r="AD2" t="n">
-        <v>559684.716740476</v>
+        <v>689167.9559981755</v>
       </c>
       <c r="AE2" t="n">
-        <v>765785.3209913806</v>
+        <v>942950.0013411206</v>
       </c>
       <c r="AF2" t="n">
         <v>1.025140315623374e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.78333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>692699.8447424109</v>
+        <v>852956.1766517621</v>
       </c>
     </row>
     <row r="3">
@@ -5867,28 +5867,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>556.4626757852873</v>
+        <v>685.9459150429868</v>
       </c>
       <c r="AB3" t="n">
-        <v>761.3767824100768</v>
+        <v>938.5414627598166</v>
       </c>
       <c r="AC3" t="n">
-        <v>688.712050895884</v>
+        <v>848.9683828052351</v>
       </c>
       <c r="AD3" t="n">
-        <v>556462.6757852873</v>
+        <v>685945.9150429869</v>
       </c>
       <c r="AE3" t="n">
-        <v>761376.7824100768</v>
+        <v>938541.4627598166</v>
       </c>
       <c r="AF3" t="n">
         <v>1.033508539050817e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>688712.0508958839</v>
+        <v>848968.3828052351</v>
       </c>
     </row>
   </sheetData>
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2171.656732557483</v>
+        <v>2414.345784609374</v>
       </c>
       <c r="AB2" t="n">
-        <v>2971.356548218488</v>
+        <v>3303.414415921412</v>
       </c>
       <c r="AC2" t="n">
-        <v>2687.774449581623</v>
+        <v>2988.141180436999</v>
       </c>
       <c r="AD2" t="n">
-        <v>2171656.732557483</v>
+        <v>2414345.784609374</v>
       </c>
       <c r="AE2" t="n">
-        <v>2971356.548218488</v>
+        <v>3303414.415921411</v>
       </c>
       <c r="AF2" t="n">
         <v>3.440867637937808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.70833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2687774.449581623</v>
+        <v>2988141.180436999</v>
       </c>
     </row>
     <row r="3">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>960.5608906096792</v>
+        <v>1106.093335865595</v>
       </c>
       <c r="AB3" t="n">
-        <v>1314.281787487842</v>
+        <v>1513.405699525339</v>
       </c>
       <c r="AC3" t="n">
-        <v>1188.848578296076</v>
+        <v>1368.96838364088</v>
       </c>
       <c r="AD3" t="n">
-        <v>960560.8906096792</v>
+        <v>1106093.335865595</v>
       </c>
       <c r="AE3" t="n">
-        <v>1314281.787487842</v>
+        <v>1513405.699525339</v>
       </c>
       <c r="AF3" t="n">
         <v>5.728210040854501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.25416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1188848.578296076</v>
+        <v>1368968.38364088</v>
       </c>
     </row>
     <row r="4">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>766.2727754143888</v>
+        <v>892.4888484991368</v>
       </c>
       <c r="AB4" t="n">
-        <v>1048.448216890941</v>
+        <v>1221.14261634565</v>
       </c>
       <c r="AC4" t="n">
-        <v>948.3857905771836</v>
+        <v>1104.598478926046</v>
       </c>
       <c r="AD4" t="n">
-        <v>766272.7754143887</v>
+        <v>892488.8484991367</v>
       </c>
       <c r="AE4" t="n">
-        <v>1048448.216890941</v>
+        <v>1221142.61634565</v>
       </c>
       <c r="AF4" t="n">
         <v>6.559568709190848e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.55</v>
       </c>
       <c r="AH4" t="n">
-        <v>948385.7905771836</v>
+        <v>1104598.478926047</v>
       </c>
     </row>
     <row r="5">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>672.0914055119998</v>
+        <v>798.2391477591864</v>
       </c>
       <c r="AB5" t="n">
-        <v>919.5851116016971</v>
+        <v>1092.18601778991</v>
       </c>
       <c r="AC5" t="n">
-        <v>831.8211991962406</v>
+        <v>987.9493171447436</v>
       </c>
       <c r="AD5" t="n">
-        <v>672091.4055119999</v>
+        <v>798239.1477591863</v>
       </c>
       <c r="AE5" t="n">
-        <v>919585.1116016972</v>
+        <v>1092186.01778991</v>
       </c>
       <c r="AF5" t="n">
         <v>7.015267485787404e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.8875</v>
       </c>
       <c r="AH5" t="n">
-        <v>831821.1991962406</v>
+        <v>987949.3171447436</v>
       </c>
     </row>
     <row r="6">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>633.0027683662269</v>
+        <v>749.4084275256628</v>
       </c>
       <c r="AB6" t="n">
-        <v>866.1023137898866</v>
+        <v>1025.373672107067</v>
       </c>
       <c r="AC6" t="n">
-        <v>783.4427245440111</v>
+        <v>927.5134479621548</v>
       </c>
       <c r="AD6" t="n">
-        <v>633002.7683662268</v>
+        <v>749408.4275256628</v>
       </c>
       <c r="AE6" t="n">
-        <v>866102.3137898865</v>
+        <v>1025373.672107067</v>
       </c>
       <c r="AF6" t="n">
         <v>7.243317976811453e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.1375</v>
       </c>
       <c r="AH6" t="n">
-        <v>783442.7245440111</v>
+        <v>927513.4479621549</v>
       </c>
     </row>
     <row r="7">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>632.9242584074368</v>
+        <v>749.3299175668728</v>
       </c>
       <c r="AB7" t="n">
-        <v>865.9948930006551</v>
+        <v>1025.266251317835</v>
       </c>
       <c r="AC7" t="n">
-        <v>783.3455558441378</v>
+        <v>927.4162792622817</v>
       </c>
       <c r="AD7" t="n">
-        <v>632924.2584074368</v>
+        <v>749329.9175668728</v>
       </c>
       <c r="AE7" t="n">
-        <v>865994.8930006551</v>
+        <v>1025266.251317835</v>
       </c>
       <c r="AF7" t="n">
         <v>7.24532900406916e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.12916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>783345.5558441378</v>
+        <v>927416.2792622817</v>
       </c>
     </row>
     <row r="8">
@@ -6800,28 +6800,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>635.0094091653764</v>
+        <v>751.4150683248124</v>
       </c>
       <c r="AB8" t="n">
-        <v>868.8478882580272</v>
+        <v>1028.119246575207</v>
       </c>
       <c r="AC8" t="n">
-        <v>785.9262652383503</v>
+        <v>929.9969886564941</v>
       </c>
       <c r="AD8" t="n">
-        <v>635009.4091653763</v>
+        <v>751415.0683248125</v>
       </c>
       <c r="AE8" t="n">
-        <v>868847.8882580271</v>
+        <v>1028119.246575207</v>
       </c>
       <c r="AF8" t="n">
         <v>7.243720182262995e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.13333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>785926.2652383503</v>
+        <v>929996.9886564941</v>
       </c>
     </row>
   </sheetData>
@@ -7097,28 +7097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>558.4235011502785</v>
+        <v>696.1979457596444</v>
       </c>
       <c r="AB2" t="n">
-        <v>764.0596701799675</v>
+        <v>952.5687434740216</v>
       </c>
       <c r="AC2" t="n">
-        <v>691.1388876224729</v>
+        <v>861.6569195354886</v>
       </c>
       <c r="AD2" t="n">
-        <v>558423.5011502785</v>
+        <v>696197.9457596444</v>
       </c>
       <c r="AE2" t="n">
-        <v>764059.6701799675</v>
+        <v>952568.7434740217</v>
       </c>
       <c r="AF2" t="n">
         <v>1.077496491469076e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.87916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>691138.8876224729</v>
+        <v>861656.9195354886</v>
       </c>
     </row>
   </sheetData>
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1410.853829669774</v>
+        <v>1602.521220115149</v>
       </c>
       <c r="AB2" t="n">
-        <v>1930.392452232295</v>
+        <v>2192.640231608147</v>
       </c>
       <c r="AC2" t="n">
-        <v>1746.158505914067</v>
+        <v>1983.377725293358</v>
       </c>
       <c r="AD2" t="n">
-        <v>1410853.829669774</v>
+        <v>1602521.220115149</v>
       </c>
       <c r="AE2" t="n">
-        <v>1930392.452232295</v>
+        <v>2192640.231608147</v>
       </c>
       <c r="AF2" t="n">
         <v>4.76180395191002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.21666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1746158.505914067</v>
+        <v>1983377.725293358</v>
       </c>
     </row>
     <row r="3">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>754.1481475604639</v>
+        <v>888.352195111986</v>
       </c>
       <c r="AB3" t="n">
-        <v>1031.858766160372</v>
+        <v>1215.482664685083</v>
       </c>
       <c r="AC3" t="n">
-        <v>933.3796137408993</v>
+        <v>1099.478705108172</v>
       </c>
       <c r="AD3" t="n">
-        <v>754148.147560464</v>
+        <v>888352.195111986</v>
       </c>
       <c r="AE3" t="n">
-        <v>1031858.766160372</v>
+        <v>1215482.664685083</v>
       </c>
       <c r="AF3" t="n">
         <v>6.989655946728346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.71666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>933379.6137408994</v>
+        <v>1099478.705108172</v>
       </c>
     </row>
     <row r="4">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>614.0791894427852</v>
+        <v>738.6606277919332</v>
       </c>
       <c r="AB4" t="n">
-        <v>840.2102382574523</v>
+        <v>1010.668058351918</v>
       </c>
       <c r="AC4" t="n">
-        <v>760.0217523606359</v>
+        <v>914.2113173443391</v>
       </c>
       <c r="AD4" t="n">
-        <v>614079.1894427851</v>
+        <v>738660.6277919331</v>
       </c>
       <c r="AE4" t="n">
-        <v>840210.2382574523</v>
+        <v>1010668.058351918</v>
       </c>
       <c r="AF4" t="n">
         <v>7.78919084086552e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.975</v>
       </c>
       <c r="AH4" t="n">
-        <v>760021.7523606359</v>
+        <v>914211.3173443391</v>
       </c>
     </row>
     <row r="5">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>594.4713353995255</v>
+        <v>709.431175576157</v>
       </c>
       <c r="AB5" t="n">
-        <v>813.3819073179955</v>
+        <v>970.6750323178703</v>
       </c>
       <c r="AC5" t="n">
-        <v>735.7538796722419</v>
+        <v>878.0351695844163</v>
       </c>
       <c r="AD5" t="n">
-        <v>594471.3353995255</v>
+        <v>709431.1755761569</v>
       </c>
       <c r="AE5" t="n">
-        <v>813381.9073179954</v>
+        <v>970675.0323178703</v>
       </c>
       <c r="AF5" t="n">
         <v>7.949187453649697e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.49166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>735753.8796722419</v>
+        <v>878035.1695844163</v>
       </c>
     </row>
     <row r="6">
@@ -7818,28 +7818,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>596.7040942384724</v>
+        <v>711.6639344151038</v>
       </c>
       <c r="AB6" t="n">
-        <v>816.4368664638105</v>
+        <v>973.7299914636855</v>
       </c>
       <c r="AC6" t="n">
-        <v>738.5172778048426</v>
+        <v>880.7985677170169</v>
       </c>
       <c r="AD6" t="n">
-        <v>596704.0942384724</v>
+        <v>711663.9344151038</v>
       </c>
       <c r="AE6" t="n">
-        <v>816436.8664638104</v>
+        <v>973729.9914636854</v>
       </c>
       <c r="AF6" t="n">
         <v>7.949635623433405e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.49166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>738517.2778048426</v>
+        <v>880798.5677170169</v>
       </c>
     </row>
   </sheetData>
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1743.214818079752</v>
+        <v>1965.121567211079</v>
       </c>
       <c r="AB2" t="n">
-        <v>2385.143419306793</v>
+        <v>2688.766023303114</v>
       </c>
       <c r="AC2" t="n">
-        <v>2157.508678937966</v>
+        <v>2432.15396774588</v>
       </c>
       <c r="AD2" t="n">
-        <v>1743214.818079752</v>
+        <v>1965121.567211079</v>
       </c>
       <c r="AE2" t="n">
-        <v>2385143.419306793</v>
+        <v>2688766.023303114</v>
       </c>
       <c r="AF2" t="n">
         <v>4.046309226061892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2157508.678937966</v>
+        <v>2432153.96774588</v>
       </c>
     </row>
     <row r="3">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>861.6627242515301</v>
+        <v>996.7106705118448</v>
       </c>
       <c r="AB3" t="n">
-        <v>1178.964953197453</v>
+        <v>1363.743511165718</v>
       </c>
       <c r="AC3" t="n">
-        <v>1066.446192751992</v>
+        <v>1233.5897444861</v>
       </c>
       <c r="AD3" t="n">
-        <v>861662.7242515301</v>
+        <v>996710.6705118448</v>
       </c>
       <c r="AE3" t="n">
-        <v>1178964.953197453</v>
+        <v>1363743.511165718</v>
       </c>
       <c r="AF3" t="n">
         <v>6.29430579974646e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.00416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1066446.192751992</v>
+        <v>1233589.7444861</v>
       </c>
     </row>
     <row r="4">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>689.3973377001915</v>
+        <v>814.827347916</v>
       </c>
       <c r="AB4" t="n">
-        <v>943.2638515054252</v>
+        <v>1114.882725064205</v>
       </c>
       <c r="AC4" t="n">
-        <v>853.2400733968769</v>
+        <v>1008.479882531808</v>
       </c>
       <c r="AD4" t="n">
-        <v>689397.3377001915</v>
+        <v>814827.3479160001</v>
       </c>
       <c r="AE4" t="n">
-        <v>943263.8515054253</v>
+        <v>1114882.725064205</v>
       </c>
       <c r="AF4" t="n">
         <v>7.126834451799759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>853240.0733968769</v>
+        <v>1008479.882531808</v>
       </c>
     </row>
     <row r="5">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>619.1049107677242</v>
+        <v>734.8165107423983</v>
       </c>
       <c r="AB5" t="n">
-        <v>847.0866518934106</v>
+        <v>1005.408367814269</v>
       </c>
       <c r="AC5" t="n">
-        <v>766.2418907302856</v>
+        <v>909.4536042895816</v>
       </c>
       <c r="AD5" t="n">
-        <v>619104.9107677242</v>
+        <v>734816.5107423983</v>
       </c>
       <c r="AE5" t="n">
-        <v>847086.6518934106</v>
+        <v>1005408.367814269</v>
       </c>
       <c r="AF5" t="n">
         <v>7.525754430908631e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.42083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>766241.8907302856</v>
+        <v>909453.6042895815</v>
       </c>
     </row>
     <row r="6">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>613.5040083497793</v>
+        <v>729.2156083244535</v>
       </c>
       <c r="AB6" t="n">
-        <v>839.4232501108027</v>
+        <v>997.7449660316615</v>
       </c>
       <c r="AC6" t="n">
-        <v>759.3098732581578</v>
+        <v>902.5215868174537</v>
       </c>
       <c r="AD6" t="n">
-        <v>613504.0083497793</v>
+        <v>729215.6083244535</v>
       </c>
       <c r="AE6" t="n">
-        <v>839423.2501108027</v>
+        <v>997744.9660316615</v>
       </c>
       <c r="AF6" t="n">
         <v>7.578210504513616e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.25833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>759309.8732581579</v>
+        <v>902521.5868174537</v>
       </c>
     </row>
     <row r="7">
@@ -8645,28 +8645,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>615.4334229931455</v>
+        <v>731.1450229678196</v>
       </c>
       <c r="AB7" t="n">
-        <v>842.063160345623</v>
+        <v>1000.384876266482</v>
       </c>
       <c r="AC7" t="n">
-        <v>761.6978341653044</v>
+        <v>904.9095477246002</v>
       </c>
       <c r="AD7" t="n">
-        <v>615433.4229931455</v>
+        <v>731145.0229678196</v>
       </c>
       <c r="AE7" t="n">
-        <v>842063.160345623</v>
+        <v>1000384.876266482</v>
       </c>
       <c r="AF7" t="n">
         <v>7.577364438810309e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.2625</v>
       </c>
       <c r="AH7" t="n">
-        <v>761697.8341653043</v>
+        <v>904909.5477246002</v>
       </c>
     </row>
   </sheetData>
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2735.026029864298</v>
+        <v>3018.04574793432</v>
       </c>
       <c r="AB2" t="n">
-        <v>3742.183274893169</v>
+        <v>4129.423339105343</v>
       </c>
       <c r="AC2" t="n">
-        <v>3385.034555324437</v>
+        <v>3735.316971303031</v>
       </c>
       <c r="AD2" t="n">
-        <v>2735026.029864298</v>
+        <v>3018045.74793432</v>
       </c>
       <c r="AE2" t="n">
-        <v>3742183.274893169</v>
+        <v>4129423.339105343</v>
       </c>
       <c r="AF2" t="n">
         <v>2.919190128196667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.89166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3385034.555324438</v>
+        <v>3735316.971303031</v>
       </c>
     </row>
     <row r="3">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1067.990230379126</v>
+        <v>1224.161424588684</v>
       </c>
       <c r="AB3" t="n">
-        <v>1461.271349608376</v>
+        <v>1674.951667312725</v>
       </c>
       <c r="AC3" t="n">
-        <v>1321.809662908972</v>
+        <v>1515.096630993828</v>
       </c>
       <c r="AD3" t="n">
-        <v>1067990.230379126</v>
+        <v>1224161.424588684</v>
       </c>
       <c r="AE3" t="n">
-        <v>1461271.349608376</v>
+        <v>1674951.667312725</v>
       </c>
       <c r="AF3" t="n">
         <v>5.232699258908187e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.62083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1321809.662908972</v>
+        <v>1515096.630993828</v>
       </c>
     </row>
     <row r="4">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>841.9828725276057</v>
+        <v>968.8324074179267</v>
       </c>
       <c r="AB4" t="n">
-        <v>1152.038111854997</v>
+        <v>1325.599241698453</v>
       </c>
       <c r="AC4" t="n">
-        <v>1042.0892113552</v>
+        <v>1199.085910560973</v>
       </c>
       <c r="AD4" t="n">
-        <v>841982.8725276056</v>
+        <v>968832.4074179267</v>
       </c>
       <c r="AE4" t="n">
-        <v>1152038.111854997</v>
+        <v>1325599.241698453</v>
       </c>
       <c r="AF4" t="n">
         <v>6.079883536660428e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.35416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1042089.211355201</v>
+        <v>1199085.910560973</v>
       </c>
     </row>
     <row r="5">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>741.1450892287669</v>
+        <v>868.0277785080115</v>
       </c>
       <c r="AB5" t="n">
-        <v>1014.067408096497</v>
+        <v>1187.673901237547</v>
       </c>
       <c r="AC5" t="n">
-        <v>917.2862379203125</v>
+        <v>1074.323971014224</v>
       </c>
       <c r="AD5" t="n">
-        <v>741145.0892287669</v>
+        <v>868027.7785080115</v>
       </c>
       <c r="AE5" t="n">
-        <v>1014067.408096497</v>
+        <v>1187673.901237547</v>
       </c>
       <c r="AF5" t="n">
         <v>6.52866431384466e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.54166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>917286.2379203124</v>
+        <v>1074323.971014224</v>
       </c>
     </row>
     <row r="6">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>681.3146608488729</v>
+        <v>798.4686805701269</v>
       </c>
       <c r="AB6" t="n">
-        <v>932.2047764549145</v>
+        <v>1092.500074708112</v>
       </c>
       <c r="AC6" t="n">
-        <v>843.236460947678</v>
+        <v>988.2334009114545</v>
       </c>
       <c r="AD6" t="n">
-        <v>681314.6608488729</v>
+        <v>798468.680570127</v>
       </c>
       <c r="AE6" t="n">
-        <v>932204.7764549145</v>
+        <v>1092500.074708112</v>
       </c>
       <c r="AF6" t="n">
         <v>6.810930886640912e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.525</v>
       </c>
       <c r="AH6" t="n">
-        <v>843236.460947678</v>
+        <v>988233.4009114545</v>
       </c>
     </row>
     <row r="7">
@@ -9472,19 +9472,19 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>640.9292257269645</v>
+        <v>758.0490800294381</v>
       </c>
       <c r="AB7" t="n">
-        <v>876.9476424414669</v>
+        <v>1037.196194061417</v>
       </c>
       <c r="AC7" t="n">
-        <v>793.2529902505988</v>
+        <v>938.2076450141956</v>
       </c>
       <c r="AD7" t="n">
-        <v>640929.2257269645</v>
+        <v>758049.080029438</v>
       </c>
       <c r="AE7" t="n">
-        <v>876947.6424414669</v>
+        <v>1037196.194061417</v>
       </c>
       <c r="AF7" t="n">
         <v>6.96667742885138e-06</v>
@@ -9493,7 +9493,7 @@
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>793252.9902505989</v>
+        <v>938207.6450141956</v>
       </c>
     </row>
     <row r="8">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>640.9856049995424</v>
+        <v>758.1054593020158</v>
       </c>
       <c r="AB8" t="n">
-        <v>877.0247830494858</v>
+        <v>1037.273334669436</v>
       </c>
       <c r="AC8" t="n">
-        <v>793.322768667256</v>
+        <v>938.2774234308528</v>
       </c>
       <c r="AD8" t="n">
-        <v>640985.6049995424</v>
+        <v>758105.4593020158</v>
       </c>
       <c r="AE8" t="n">
-        <v>877024.7830494858</v>
+        <v>1037273.334669436</v>
       </c>
       <c r="AF8" t="n">
         <v>6.973599497394067e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.97916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>793322.768667256</v>
+        <v>938277.4234308527</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1138.034945616267</v>
+        <v>1309.288816195491</v>
       </c>
       <c r="AB2" t="n">
-        <v>1557.109619150576</v>
+        <v>1791.426720064622</v>
       </c>
       <c r="AC2" t="n">
-        <v>1408.501262515921</v>
+        <v>1620.455468184847</v>
       </c>
       <c r="AD2" t="n">
-        <v>1138034.945616267</v>
+        <v>1309288.816195491</v>
       </c>
       <c r="AE2" t="n">
-        <v>1557109.619150576</v>
+        <v>1791426.720064622</v>
       </c>
       <c r="AF2" t="n">
         <v>5.633068822078265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.4625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1408501.262515921</v>
+        <v>1620455.468184847</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>660.2836994195385</v>
+        <v>783.938860052732</v>
       </c>
       <c r="AB3" t="n">
-        <v>903.4292872067632</v>
+        <v>1072.619733265772</v>
       </c>
       <c r="AC3" t="n">
-        <v>817.2072640067172</v>
+        <v>970.2504113541362</v>
       </c>
       <c r="AD3" t="n">
-        <v>660283.6994195385</v>
+        <v>783938.8600527321</v>
       </c>
       <c r="AE3" t="n">
-        <v>903429.2872067632</v>
+        <v>1072619.733265772</v>
       </c>
       <c r="AF3" t="n">
         <v>7.83308182842015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>817207.2640067172</v>
+        <v>970250.4113541362</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>577.2820346363236</v>
+        <v>700.9703496584408</v>
       </c>
       <c r="AB4" t="n">
-        <v>789.8627476753535</v>
+        <v>959.0985570319554</v>
       </c>
       <c r="AC4" t="n">
-        <v>714.4793556165461</v>
+        <v>867.563536852104</v>
       </c>
       <c r="AD4" t="n">
-        <v>577282.0346363236</v>
+        <v>700970.3496584408</v>
       </c>
       <c r="AE4" t="n">
-        <v>789862.7476753535</v>
+        <v>959098.5570319553</v>
       </c>
       <c r="AF4" t="n">
         <v>8.37433584545218e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.85416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>714479.355616546</v>
+        <v>867563.536852104</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>578.18955464482</v>
+        <v>701.8778696669372</v>
       </c>
       <c r="AB5" t="n">
-        <v>791.1044565879355</v>
+        <v>960.3402659445372</v>
       </c>
       <c r="AC5" t="n">
-        <v>715.6025575732605</v>
+        <v>868.6867388088185</v>
       </c>
       <c r="AD5" t="n">
-        <v>578189.5546448199</v>
+        <v>701877.8696669372</v>
       </c>
       <c r="AE5" t="n">
-        <v>791104.4565879354</v>
+        <v>960340.2659445372</v>
       </c>
       <c r="AF5" t="n">
         <v>8.38536227804008e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.82083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>715602.5575732605</v>
+        <v>868686.7388088185</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>807.5339953497611</v>
+        <v>957.813278602844</v>
       </c>
       <c r="AB2" t="n">
-        <v>1104.90363832307</v>
+        <v>1310.522383524004</v>
       </c>
       <c r="AC2" t="n">
-        <v>999.4531858235114</v>
+        <v>1185.447966570189</v>
       </c>
       <c r="AD2" t="n">
-        <v>807533.9953497611</v>
+        <v>957813.278602844</v>
       </c>
       <c r="AE2" t="n">
-        <v>1104903.63832307</v>
+        <v>1310522.383524003</v>
       </c>
       <c r="AF2" t="n">
         <v>7.452369129622704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>999453.1858235113</v>
+        <v>1185447.966570189</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>559.5636849214695</v>
+        <v>681.7416532950973</v>
       </c>
       <c r="AB3" t="n">
-        <v>765.6197199170691</v>
+        <v>932.789006357416</v>
       </c>
       <c r="AC3" t="n">
-        <v>692.5500484022091</v>
+        <v>843.7649327682564</v>
       </c>
       <c r="AD3" t="n">
-        <v>559563.6849214695</v>
+        <v>681741.6532950973</v>
       </c>
       <c r="AE3" t="n">
-        <v>765619.7199170691</v>
+        <v>932789.006357416</v>
       </c>
       <c r="AF3" t="n">
         <v>9.204392711116917e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.675</v>
       </c>
       <c r="AH3" t="n">
-        <v>692550.0484022091</v>
+        <v>843764.9327682564</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>560.1394272146816</v>
+        <v>682.3173955883094</v>
       </c>
       <c r="AB4" t="n">
-        <v>766.4074759225994</v>
+        <v>933.5767623629463</v>
       </c>
       <c r="AC4" t="n">
-        <v>693.2626220801939</v>
+        <v>844.4775064462414</v>
       </c>
       <c r="AD4" t="n">
-        <v>560139.4272146816</v>
+        <v>682317.3955883094</v>
       </c>
       <c r="AE4" t="n">
-        <v>766407.4759225993</v>
+        <v>933576.7623629463</v>
       </c>
       <c r="AF4" t="n">
         <v>9.222381752246135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.62916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>693262.6220801938</v>
+        <v>844477.5064462414</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>619.9273949491793</v>
+        <v>750.1094535698262</v>
       </c>
       <c r="AB2" t="n">
-        <v>848.2120110359186</v>
+        <v>1026.332846867777</v>
       </c>
       <c r="AC2" t="n">
-        <v>767.2598471756841</v>
+        <v>928.3810804299137</v>
       </c>
       <c r="AD2" t="n">
-        <v>619927.3949491793</v>
+        <v>750109.4535698262</v>
       </c>
       <c r="AE2" t="n">
-        <v>848212.0110359186</v>
+        <v>1026332.846867777</v>
       </c>
       <c r="AF2" t="n">
         <v>9.305988756740339e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.40833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>767259.8471756841</v>
+        <v>928381.0804299137</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>553.8317444378079</v>
+        <v>674.8093208672877</v>
       </c>
       <c r="AB3" t="n">
-        <v>757.777026071956</v>
+        <v>923.3038832967649</v>
       </c>
       <c r="AC3" t="n">
-        <v>685.4558502503836</v>
+        <v>835.1850565400601</v>
       </c>
       <c r="AD3" t="n">
-        <v>553831.7444378078</v>
+        <v>674809.3208672877</v>
       </c>
       <c r="AE3" t="n">
-        <v>757777.026071956</v>
+        <v>923303.8832967649</v>
       </c>
       <c r="AF3" t="n">
         <v>9.917572387289882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.72083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>685455.8502503836</v>
+        <v>835185.0565400601</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>585.5524980870771</v>
+        <v>722.2509100622067</v>
       </c>
       <c r="AB2" t="n">
-        <v>801.1787606357711</v>
+        <v>988.2155586084538</v>
       </c>
       <c r="AC2" t="n">
-        <v>724.7153841821452</v>
+        <v>893.9016526641096</v>
       </c>
       <c r="AD2" t="n">
-        <v>585552.4980870771</v>
+        <v>722250.9100622067</v>
       </c>
       <c r="AE2" t="n">
-        <v>801178.7606357711</v>
+        <v>988215.5586084537</v>
       </c>
       <c r="AF2" t="n">
         <v>1.119875687609876e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>724715.3841821451</v>
+        <v>893901.6526641096</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1570.763078615596</v>
+        <v>1772.690732425672</v>
       </c>
       <c r="AB2" t="n">
-        <v>2149.187341338137</v>
+        <v>2425.473665700444</v>
       </c>
       <c r="AC2" t="n">
-        <v>1944.071917884203</v>
+        <v>2193.989863219664</v>
       </c>
       <c r="AD2" t="n">
-        <v>1570763.078615596</v>
+        <v>1772690.732425672</v>
       </c>
       <c r="AE2" t="n">
-        <v>2149187.341338137</v>
+        <v>2425473.665700444</v>
       </c>
       <c r="AF2" t="n">
         <v>4.382767772437394e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.35416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1944071.917884203</v>
+        <v>2193989.863219664</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>808.1519971258077</v>
+        <v>942.7366045903631</v>
       </c>
       <c r="AB3" t="n">
-        <v>1105.749215617371</v>
+        <v>1289.893813004212</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000.218062407619</v>
+        <v>1166.788157868426</v>
       </c>
       <c r="AD3" t="n">
-        <v>808151.9971258077</v>
+        <v>942736.6045903631</v>
       </c>
       <c r="AE3" t="n">
-        <v>1105749.215617371</v>
+        <v>1289893.813004212</v>
       </c>
       <c r="AF3" t="n">
         <v>6.621128526403534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.37083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000218.062407619</v>
+        <v>1166788.157868426</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>657.5632026259329</v>
+        <v>772.941105124835</v>
       </c>
       <c r="AB4" t="n">
-        <v>899.7069834739044</v>
+        <v>1057.572119786718</v>
       </c>
       <c r="AC4" t="n">
-        <v>813.8402117178364</v>
+        <v>956.6389209860653</v>
       </c>
       <c r="AD4" t="n">
-        <v>657563.202625933</v>
+        <v>772941.1051248349</v>
       </c>
       <c r="AE4" t="n">
-        <v>899706.9834739044</v>
+        <v>1057572.119786718</v>
       </c>
       <c r="AF4" t="n">
         <v>7.439308973004838e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.3625</v>
       </c>
       <c r="AH4" t="n">
-        <v>813840.2117178363</v>
+        <v>956638.9209860653</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>603.4311879440222</v>
+        <v>718.7749250241434</v>
       </c>
       <c r="AB5" t="n">
-        <v>825.6411728501726</v>
+        <v>983.4595625297383</v>
       </c>
       <c r="AC5" t="n">
-        <v>746.8431381080154</v>
+        <v>889.5995621760645</v>
       </c>
       <c r="AD5" t="n">
-        <v>603431.1879440222</v>
+        <v>718774.9250241434</v>
       </c>
       <c r="AE5" t="n">
-        <v>825641.1728501725</v>
+        <v>983459.5625297383</v>
       </c>
       <c r="AF5" t="n">
         <v>7.755097917307095e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.37083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>746843.1381080154</v>
+        <v>889599.5621760645</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>604.6997001985142</v>
+        <v>720.0434372786353</v>
       </c>
       <c r="AB6" t="n">
-        <v>827.3768072795793</v>
+        <v>985.1951969591452</v>
       </c>
       <c r="AC6" t="n">
-        <v>748.4131260234578</v>
+        <v>891.1695500915069</v>
       </c>
       <c r="AD6" t="n">
-        <v>604699.7001985142</v>
+        <v>720043.4372786353</v>
       </c>
       <c r="AE6" t="n">
-        <v>827376.8072795793</v>
+        <v>985195.1969591451</v>
       </c>
       <c r="AF6" t="n">
         <v>7.755532888304756e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.37083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>748413.1260234579</v>
+        <v>891169.5500915069</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2433.665689848165</v>
+        <v>2696.478236420522</v>
       </c>
       <c r="AB2" t="n">
-        <v>3329.848762603192</v>
+        <v>3689.440483294769</v>
       </c>
       <c r="AC2" t="n">
-        <v>3012.052670172308</v>
+        <v>3337.325461731216</v>
       </c>
       <c r="AD2" t="n">
-        <v>2433665.689848165</v>
+        <v>2696478.236420522</v>
       </c>
       <c r="AE2" t="n">
-        <v>3329848.762603192</v>
+        <v>3689440.483294769</v>
       </c>
       <c r="AF2" t="n">
         <v>3.171426338550825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.64166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3012052.670172308</v>
+        <v>3337325.461731216</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1007.327241868223</v>
+        <v>1163.04017171802</v>
       </c>
       <c r="AB3" t="n">
-        <v>1378.269572465587</v>
+        <v>1591.322872655714</v>
       </c>
       <c r="AC3" t="n">
-        <v>1246.729458882965</v>
+        <v>1439.449251125131</v>
       </c>
       <c r="AD3" t="n">
-        <v>1007327.241868223</v>
+        <v>1163040.17171802</v>
       </c>
       <c r="AE3" t="n">
-        <v>1378269.572465587</v>
+        <v>1591322.872655714</v>
       </c>
       <c r="AF3" t="n">
         <v>5.476203144755068e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.90416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1246729.458882965</v>
+        <v>1439449.251125132</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>798.8459042352009</v>
+        <v>935.0861764990783</v>
       </c>
       <c r="AB4" t="n">
-        <v>1093.0162087686</v>
+        <v>1279.426159776649</v>
       </c>
       <c r="AC4" t="n">
-        <v>988.7002758616079</v>
+        <v>1157.319522773459</v>
       </c>
       <c r="AD4" t="n">
-        <v>798845.904235201</v>
+        <v>935086.1764990783</v>
       </c>
       <c r="AE4" t="n">
-        <v>1093016.2087686</v>
+        <v>1279426.159776649</v>
       </c>
       <c r="AF4" t="n">
         <v>6.311409610168439e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.94583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>988700.2758616079</v>
+        <v>1157319.522773459</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>712.6998362232356</v>
+        <v>829.4684619310502</v>
       </c>
       <c r="AB5" t="n">
-        <v>975.1473580183336</v>
+        <v>1134.91534317996</v>
       </c>
       <c r="AC5" t="n">
-        <v>882.0806627969761</v>
+        <v>1026.600615690552</v>
       </c>
       <c r="AD5" t="n">
-        <v>712699.8362232356</v>
+        <v>829468.4619310502</v>
       </c>
       <c r="AE5" t="n">
-        <v>975147.3580183337</v>
+        <v>1134915.34317996</v>
       </c>
       <c r="AF5" t="n">
         <v>6.764189774006654e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.20833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>882080.662796976</v>
+        <v>1026600.615690552</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>653.9796499541038</v>
+        <v>770.7141102431377</v>
       </c>
       <c r="AB6" t="n">
-        <v>894.8038086131215</v>
+        <v>1054.525047141499</v>
       </c>
       <c r="AC6" t="n">
-        <v>809.4049889841175</v>
+        <v>953.8826566775133</v>
       </c>
       <c r="AD6" t="n">
-        <v>653979.6499541039</v>
+        <v>770714.1102431377</v>
       </c>
       <c r="AE6" t="n">
-        <v>894803.8086131215</v>
+        <v>1054525.0471415</v>
       </c>
       <c r="AF6" t="n">
         <v>7.039316609672235e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.2625</v>
       </c>
       <c r="AH6" t="n">
-        <v>809404.9889841175</v>
+        <v>953882.6566775133</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>641.2930504170571</v>
+        <v>748.3595127506927</v>
       </c>
       <c r="AB7" t="n">
-        <v>877.4454434332638</v>
+        <v>1023.938500637099</v>
       </c>
       <c r="AC7" t="n">
-        <v>793.7032818144069</v>
+        <v>926.2152472430047</v>
       </c>
       <c r="AD7" t="n">
-        <v>641293.0504170571</v>
+        <v>748359.5127506927</v>
       </c>
       <c r="AE7" t="n">
-        <v>877445.4434332638</v>
+        <v>1023938.500637099</v>
       </c>
       <c r="AF7" t="n">
         <v>7.102988820211985e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.05416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>793703.2818144069</v>
+        <v>926215.2472430047</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>643.1143585945011</v>
+        <v>750.1808209281367</v>
       </c>
       <c r="AB8" t="n">
-        <v>879.9374376320885</v>
+        <v>1026.430494835923</v>
       </c>
       <c r="AC8" t="n">
-        <v>795.9574435844316</v>
+        <v>928.4694090130296</v>
       </c>
       <c r="AD8" t="n">
-        <v>643114.3585945012</v>
+        <v>750180.8209281367</v>
       </c>
       <c r="AE8" t="n">
-        <v>879937.4376320885</v>
+        <v>1026430.494835923</v>
       </c>
       <c r="AF8" t="n">
         <v>7.102202743538654e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.05833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>795957.4435844317</v>
+        <v>928469.4090130295</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>631.7718404239225</v>
+        <v>794.2717234444106</v>
       </c>
       <c r="AB2" t="n">
-        <v>864.4181038745178</v>
+        <v>1086.757612812026</v>
       </c>
       <c r="AC2" t="n">
-        <v>781.9192532591616</v>
+        <v>983.038991519135</v>
       </c>
       <c r="AD2" t="n">
-        <v>631771.8404239225</v>
+        <v>794271.7234444106</v>
       </c>
       <c r="AE2" t="n">
-        <v>864418.1038745178</v>
+        <v>1086757.612812026</v>
       </c>
       <c r="AF2" t="n">
         <v>1.137782004244229e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.92083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>781919.2532591616</v>
+        <v>983038.9915191351</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>913.4130467930806</v>
+        <v>1064.435452753609</v>
       </c>
       <c r="AB2" t="n">
-        <v>1249.772027561903</v>
+        <v>1456.407546035423</v>
       </c>
       <c r="AC2" t="n">
-        <v>1130.495539317451</v>
+        <v>1317.41005392263</v>
       </c>
       <c r="AD2" t="n">
-        <v>913413.0467930806</v>
+        <v>1064435.452753609</v>
       </c>
       <c r="AE2" t="n">
-        <v>1249772.027561903</v>
+        <v>1456407.546035423</v>
       </c>
       <c r="AF2" t="n">
         <v>6.75466237427309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.06666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1130495.539317451</v>
+        <v>1317410.05392263</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>576.3607248489377</v>
+        <v>699.0869616168458</v>
       </c>
       <c r="AB3" t="n">
-        <v>788.6021709789331</v>
+        <v>956.521622424229</v>
       </c>
       <c r="AC3" t="n">
-        <v>713.3390865908013</v>
+        <v>865.2325412665886</v>
       </c>
       <c r="AD3" t="n">
-        <v>576360.7248489377</v>
+        <v>699086.9616168458</v>
       </c>
       <c r="AE3" t="n">
-        <v>788602.1709789331</v>
+        <v>956521.622424229</v>
       </c>
       <c r="AF3" t="n">
         <v>8.810587392762399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.58333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>713339.0865908014</v>
+        <v>865232.5412665886</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>569.7948625472742</v>
+        <v>683.0448370657441</v>
       </c>
       <c r="AB4" t="n">
-        <v>779.6184685123959</v>
+        <v>934.5720798848254</v>
       </c>
       <c r="AC4" t="n">
-        <v>705.2127760789648</v>
+        <v>845.3778322607692</v>
       </c>
       <c r="AD4" t="n">
-        <v>569794.8625472742</v>
+        <v>683044.8370657441</v>
       </c>
       <c r="AE4" t="n">
-        <v>779618.4685123959</v>
+        <v>934572.0798848254</v>
       </c>
       <c r="AF4" t="n">
         <v>8.899478208985324e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.3375</v>
       </c>
       <c r="AH4" t="n">
-        <v>705212.7760789648</v>
+        <v>845377.8322607692</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1269.220136272545</v>
+        <v>1450.662662079382</v>
       </c>
       <c r="AB2" t="n">
-        <v>1736.602984488648</v>
+        <v>1984.860652976857</v>
       </c>
       <c r="AC2" t="n">
-        <v>1570.864032986647</v>
+        <v>1795.428338026169</v>
       </c>
       <c r="AD2" t="n">
-        <v>1269220.136272545</v>
+        <v>1450662.662079382</v>
       </c>
       <c r="AE2" t="n">
-        <v>1736602.984488648</v>
+        <v>1984860.652976857</v>
       </c>
       <c r="AF2" t="n">
         <v>5.17171153217364e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.29166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1570864.032986647</v>
+        <v>1795428.338026169</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>712.9934984154124</v>
+        <v>837.1405019462966</v>
       </c>
       <c r="AB3" t="n">
-        <v>975.5491595851317</v>
+        <v>1145.412566795337</v>
       </c>
       <c r="AC3" t="n">
-        <v>882.4441169861709</v>
+        <v>1036.095999017024</v>
       </c>
       <c r="AD3" t="n">
-        <v>712993.4984154124</v>
+        <v>837140.5019462965</v>
       </c>
       <c r="AE3" t="n">
-        <v>975549.1595851318</v>
+        <v>1145412.566795337</v>
       </c>
       <c r="AF3" t="n">
         <v>7.378703439933769e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.1375</v>
       </c>
       <c r="AH3" t="n">
-        <v>882444.1169861709</v>
+        <v>1036095.999017024</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>588.8987248200499</v>
+        <v>703.5581002095161</v>
       </c>
       <c r="AB4" t="n">
-        <v>805.7572156769289</v>
+        <v>962.6392314994338</v>
       </c>
       <c r="AC4" t="n">
-        <v>728.8568779000769</v>
+        <v>870.7662943177741</v>
       </c>
       <c r="AD4" t="n">
-        <v>588898.7248200499</v>
+        <v>703558.100209516</v>
       </c>
       <c r="AE4" t="n">
-        <v>805757.2156769289</v>
+        <v>962639.2314994338</v>
       </c>
       <c r="AF4" t="n">
         <v>8.125322136917218e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.7375</v>
       </c>
       <c r="AH4" t="n">
-        <v>728856.8779000769</v>
+        <v>870766.294317774</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>587.7202200199282</v>
+        <v>702.3795954093945</v>
       </c>
       <c r="AB5" t="n">
-        <v>804.1447334174402</v>
+        <v>961.026749239945</v>
       </c>
       <c r="AC5" t="n">
-        <v>727.3982886843007</v>
+        <v>869.3077051019978</v>
       </c>
       <c r="AD5" t="n">
-        <v>587720.2200199282</v>
+        <v>702379.5954093945</v>
       </c>
       <c r="AE5" t="n">
-        <v>804144.7334174402</v>
+        <v>961026.7492399451</v>
       </c>
       <c r="AF5" t="n">
         <v>8.155409065189956e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.65</v>
       </c>
       <c r="AH5" t="n">
-        <v>727398.2886843007</v>
+        <v>869307.7051019978</v>
       </c>
     </row>
   </sheetData>
